--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3828.77729884387</v>
+        <v>-5278.181839625295</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29889903.10260163</v>
+        <v>29817311.08400834</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13084412.60676241</v>
+        <v>12702661.4891258</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3495137.354112092</v>
+        <v>3676315.63690487</v>
       </c>
     </row>
     <row r="11">
@@ -1369,26 +1369,26 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>191.255994400369</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>191.255994400369</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>191.255994400369</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>168.458279867845</v>
-      </c>
-      <c r="X11" t="n">
-        <v>191.255994400369</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>191.255994400369</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>48.21166394479565</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>71.60506467971084</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>138.5285367888426</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>38.8716690473428</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>81.66760453720602</v>
       </c>
     </row>
     <row r="13">
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.49413443704393</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>29.59412044186228</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.01983628227364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85.55513282065151</v>
+        <v>36.79224454205001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.90314704719353</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.18779416180689</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>43.90453113913502</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T15" t="n">
-        <v>14.98273144005197</v>
+        <v>136.7309641056443</v>
       </c>
       <c r="U15" t="n">
-        <v>182.8889700571583</v>
+        <v>182.8596299154304</v>
       </c>
       <c r="V15" t="n">
-        <v>191.255994400369</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W15" t="n">
-        <v>191.255994400369</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X15" t="n">
         <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="16">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>123.3638054232309</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.0330037811135</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>161.4284329972273</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>191.255994400369</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>191.255994400369</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>73.1725923873564</v>
+        <v>238.8181949570817</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
         <v>211.1448086517629</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>27.30526628830127</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2013,13 +2013,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
         <v>75.43872475250879</v>
@@ -2052,10 +2052,10 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>42.66764416892545</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>317.4877002162963</v>
       </c>
       <c r="F20" t="n">
-        <v>148.0710318362825</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2177,7 +2177,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H21" t="n">
-        <v>43.9045311391345</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T21" t="n">
-        <v>136.7309641056443</v>
+        <v>136.7309641056451</v>
       </c>
       <c r="U21" t="n">
         <v>182.8596299154304</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>162.1789640126756</v>
+        <v>63.01432013375645</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
         <v>277.3402845023203</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>199.4130558061294</v>
       </c>
       <c r="G23" t="n">
         <v>398.5660300744983</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.90941067458685</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T23" t="n">
         <v>211.1448086517629</v>
@@ -2380,7 +2380,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>199.4130558061286</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H24" t="n">
-        <v>43.9045311391345</v>
+        <v>43.90453113913449</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T24" t="n">
         <v>136.7309641056443</v>
@@ -2478,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2490,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>135.4602252892499</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.5212286174028</v>
       </c>
       <c r="U25" t="n">
-        <v>236.1845314821666</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T26" t="n">
-        <v>204.5281633465506</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>215.677839978423</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T27" t="n">
         <v>136.7309641056443</v>
@@ -2715,22 +2715,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>41.34546638575321</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>74.87256417812567</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U29" t="n">
-        <v>93.25108598520268</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>61.01048078257268</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>92.18779416180689</v>
       </c>
       <c r="H30" t="n">
-        <v>43.90453113913449</v>
+        <v>43.90453113913458</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>117.4482575378738</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T31" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>265.6241803862509</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>121.6590850748777</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>211.1448086517629</v>
       </c>
       <c r="U32" t="n">
-        <v>255.632988972596</v>
+        <v>223.0527920834948</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T34" t="n">
         <v>237.5909258267186</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>272.4146533150903</v>
       </c>
       <c r="W34" t="n">
-        <v>73.92264940126938</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>261.8579474929353</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>199.4130558061289</v>
       </c>
       <c r="G35" t="n">
         <v>398.5660300744983</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>143.1965086850922</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T37" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>272.4146533150903</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>26.59480189132757</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T38" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>66.26839125026152</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>60.96806994057228</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.83890144514258</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V41" t="n">
-        <v>88.74542987157569</v>
+        <v>21.61688190077625</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3872,7 +3872,7 @@
         <v>63.32136466518995</v>
       </c>
       <c r="T42" t="n">
-        <v>136.7309641056443</v>
+        <v>136.7309641056447</v>
       </c>
       <c r="U42" t="n">
         <v>182.8596299154304</v>
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>75.43872475250879</v>
+        <v>55.91603607969719</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>196.9759285625818</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.5660300744983</v>
+        <v>205.5516496779707</v>
       </c>
       <c r="H44" t="n">
-        <v>53.95733467751904</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>122.8120938321207</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>41.34546638575336</v>
       </c>
       <c r="T46" t="n">
         <v>237.5909258267186</v>
@@ -4194,10 +4194,10 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="C11" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="D11" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="E11" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="F11" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="G11" t="n">
-        <v>15.30047955202952</v>
+        <v>208.4883526837153</v>
       </c>
       <c r="H11" t="n">
         <v>15.30047955202952</v>
@@ -5047,46 +5047,46 @@
         <v>138.9154718648985</v>
       </c>
       <c r="L11" t="n">
-        <v>240.9878195381906</v>
+        <v>240.9878195381907</v>
       </c>
       <c r="M11" t="n">
-        <v>359.7092571452449</v>
+        <v>359.709257145245</v>
       </c>
       <c r="N11" t="n">
-        <v>481.1014755937833</v>
+        <v>481.1014755937834</v>
       </c>
       <c r="O11" t="n">
-        <v>593.5617252439823</v>
+        <v>593.5617252439824</v>
       </c>
       <c r="P11" t="n">
-        <v>683.9375338210158</v>
+        <v>683.9375338210157</v>
       </c>
       <c r="Q11" t="n">
-        <v>743.9779309475099</v>
+        <v>743.9779309475098</v>
       </c>
       <c r="R11" t="n">
-        <v>765.023977601476</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="S11" t="n">
-        <v>765.023977601476</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="T11" t="n">
-        <v>765.023977601476</v>
+        <v>571.83610446979</v>
       </c>
       <c r="U11" t="n">
-        <v>765.023977601476</v>
+        <v>571.83610446979</v>
       </c>
       <c r="V11" t="n">
-        <v>765.023977601476</v>
+        <v>571.83610446979</v>
       </c>
       <c r="W11" t="n">
-        <v>594.8640989470871</v>
+        <v>378.6482313381042</v>
       </c>
       <c r="X11" t="n">
-        <v>401.6762258154012</v>
+        <v>378.6482313381042</v>
       </c>
       <c r="Y11" t="n">
-        <v>208.4883526837154</v>
+        <v>208.4883526837153</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>167.839088486033</v>
+        <v>341.3482752463025</v>
       </c>
       <c r="C12" t="n">
-        <v>167.839088486033</v>
+        <v>223.8423717638073</v>
       </c>
       <c r="D12" t="n">
-        <v>63.99913000131806</v>
+        <v>120.0024132790923</v>
       </c>
       <c r="E12" t="n">
-        <v>63.99913000131806</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="F12" t="n">
-        <v>63.99913000131806</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="G12" t="n">
-        <v>63.99913000131806</v>
+        <v>15.30047955202952</v>
       </c>
       <c r="H12" t="n">
         <v>15.30047955202952</v>
       </c>
       <c r="I12" t="n">
-        <v>39.09010124407965</v>
+        <v>15.6327953996678</v>
       </c>
       <c r="J12" t="n">
-        <v>63.53148083445019</v>
+        <v>75.5783741244332</v>
       </c>
       <c r="K12" t="n">
-        <v>118.005850537858</v>
+        <v>130.052743827841</v>
       </c>
       <c r="L12" t="n">
-        <v>198.7807760965663</v>
+        <v>210.8276693865494</v>
       </c>
       <c r="M12" t="n">
-        <v>296.1867953944684</v>
+        <v>308.2336886844515</v>
       </c>
       <c r="N12" t="n">
-        <v>398.5122669813386</v>
+        <v>410.5591602713217</v>
       </c>
       <c r="O12" t="n">
-        <v>488.5093658600089</v>
+        <v>500.556259149992</v>
       </c>
       <c r="P12" t="n">
-        <v>557.5983487300006</v>
+        <v>569.6452420199837</v>
       </c>
       <c r="Q12" t="n">
-        <v>653.5331761914432</v>
+        <v>758.9886764763489</v>
       </c>
       <c r="R12" t="n">
-        <v>765.023977601476</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="S12" t="n">
-        <v>692.6956294401518</v>
+        <v>692.6956294401517</v>
       </c>
       <c r="T12" t="n">
-        <v>692.6956294401518</v>
+        <v>552.7678145019269</v>
       </c>
       <c r="U12" t="n">
-        <v>692.6956294401518</v>
+        <v>552.7678145019269</v>
       </c>
       <c r="V12" t="n">
-        <v>499.507756308466</v>
+        <v>552.7678145019269</v>
       </c>
       <c r="W12" t="n">
-        <v>460.2434441394329</v>
+        <v>552.7678145019269</v>
       </c>
       <c r="X12" t="n">
-        <v>296.7660979060958</v>
+        <v>552.7678145019269</v>
       </c>
       <c r="Y12" t="n">
-        <v>296.7660979060958</v>
+        <v>470.2752846663652</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>525.3430227456995</v>
+        <v>353.1239807316995</v>
       </c>
       <c r="C13" t="n">
-        <v>353.3704596246155</v>
+        <v>181.1514176106155</v>
       </c>
       <c r="D13" t="n">
-        <v>353.3704596246155</v>
+        <v>181.1514176106155</v>
       </c>
       <c r="E13" t="n">
-        <v>187.1622537774691</v>
+        <v>181.1514176106155</v>
       </c>
       <c r="F13" t="n">
-        <v>15.30047955202952</v>
+        <v>181.1514176106155</v>
       </c>
       <c r="G13" t="n">
         <v>15.30047955202952</v>
@@ -5199,52 +5199,52 @@
         <v>15.30047955202952</v>
       </c>
       <c r="J13" t="n">
-        <v>23.00527047835667</v>
+        <v>100.9269871265775</v>
       </c>
       <c r="K13" t="n">
-        <v>212.348704934722</v>
+        <v>290.2704215829428</v>
       </c>
       <c r="L13" t="n">
-        <v>401.6921393910873</v>
+        <v>327.7354015680911</v>
       </c>
       <c r="M13" t="n">
-        <v>506.7829857097377</v>
+        <v>367.766440974424</v>
       </c>
       <c r="N13" t="n">
-        <v>696.126420166103</v>
+        <v>408.1224796971633</v>
       </c>
       <c r="O13" t="n">
-        <v>730.1008767915845</v>
+        <v>442.0969363226448</v>
       </c>
       <c r="P13" t="n">
-        <v>756.0743233940789</v>
+        <v>631.44037077901</v>
       </c>
       <c r="Q13" t="n">
-        <v>765.023977601476</v>
+        <v>765.0239776014758</v>
       </c>
       <c r="R13" t="n">
-        <v>765.023977601476</v>
+        <v>736.2420236246638</v>
       </c>
       <c r="S13" t="n">
-        <v>765.023977601476</v>
+        <v>573.1830003951412</v>
       </c>
       <c r="T13" t="n">
-        <v>765.023977601476</v>
+        <v>573.1830003951412</v>
       </c>
       <c r="U13" t="n">
-        <v>765.023977601476</v>
+        <v>573.1830003951412</v>
       </c>
       <c r="V13" t="n">
-        <v>765.023977601476</v>
+        <v>573.1830003951412</v>
       </c>
       <c r="W13" t="n">
-        <v>765.023977601476</v>
+        <v>543.2899494437652</v>
       </c>
       <c r="X13" t="n">
-        <v>765.023977601476</v>
+        <v>543.2899494437652</v>
       </c>
       <c r="Y13" t="n">
-        <v>715.5089914577652</v>
+        <v>543.2899494437652</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>401.6762258154012</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="C14" t="n">
-        <v>401.6762258154012</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D14" t="n">
-        <v>401.6762258154012</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E14" t="n">
-        <v>208.4883526837154</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F14" t="n">
-        <v>208.4883526837154</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G14" t="n">
-        <v>208.4883526837154</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H14" t="n">
-        <v>15.30047955202952</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>15.30047955202952</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>61.4717287555292</v>
+        <v>184.2963411149082</v>
       </c>
       <c r="K14" t="n">
-        <v>138.9154718648985</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L14" t="n">
-        <v>240.9878195381906</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M14" t="n">
-        <v>359.7092571452449</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N14" t="n">
-        <v>481.1014755937834</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O14" t="n">
-        <v>593.5617252439824</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P14" t="n">
-        <v>683.9375338210157</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q14" t="n">
-        <v>743.9779309475098</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R14" t="n">
-        <v>765.023977601476</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>681.2834250285532</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T14" t="n">
-        <v>681.2834250285532</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U14" t="n">
-        <v>681.2834250285532</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V14" t="n">
-        <v>488.0955518968674</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="W14" t="n">
-        <v>488.0955518968674</v>
+        <v>881.3692690695104</v>
       </c>
       <c r="X14" t="n">
-        <v>488.0955518968674</v>
+        <v>881.3692690695104</v>
       </c>
       <c r="Y14" t="n">
-        <v>488.0955518968674</v>
+        <v>476.0319990244008</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.30047955202952</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C15" t="n">
-        <v>15.30047955202952</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D15" t="n">
-        <v>15.30047955202952</v>
+        <v>372.0909253760276</v>
       </c>
       <c r="E15" t="n">
-        <v>15.30047955202952</v>
+        <v>267.3889916489648</v>
       </c>
       <c r="F15" t="n">
-        <v>15.30047955202952</v>
+        <v>173.743161331869</v>
       </c>
       <c r="G15" t="n">
-        <v>15.30047955202952</v>
+        <v>80.62417733004382</v>
       </c>
       <c r="H15" t="n">
-        <v>15.30047955202952</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>15.6327953996678</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>91.98045785342725</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K15" t="n">
-        <v>281.3238923097925</v>
+        <v>267.1899758967557</v>
       </c>
       <c r="L15" t="n">
-        <v>362.0988178685009</v>
+        <v>443.8288267274047</v>
       </c>
       <c r="M15" t="n">
-        <v>459.504837166403</v>
+        <v>824.813713724229</v>
       </c>
       <c r="N15" t="n">
-        <v>561.8303087532732</v>
+        <v>1041.968695556545</v>
       </c>
       <c r="O15" t="n">
-        <v>651.8274076319435</v>
+        <v>1237.012362544032</v>
       </c>
       <c r="P15" t="n">
-        <v>720.9163905019352</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q15" t="n">
-        <v>758.988676476349</v>
+        <v>1780.360625738642</v>
       </c>
       <c r="R15" t="n">
-        <v>765.023977601476</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S15" t="n">
-        <v>765.023977601476</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T15" t="n">
-        <v>749.8899054398073</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U15" t="n">
-        <v>565.1535720487383</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V15" t="n">
-        <v>371.9656989170525</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W15" t="n">
-        <v>178.7778257853666</v>
+        <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>15.30047955202952</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.30047955202952</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>187.2730426731135</v>
+        <v>668.0371807660551</v>
       </c>
       <c r="C16" t="n">
-        <v>15.30047955202952</v>
+        <v>496.0646176449711</v>
       </c>
       <c r="D16" t="n">
-        <v>15.30047955202952</v>
+        <v>332.7478447717418</v>
       </c>
       <c r="E16" t="n">
-        <v>15.30047955202952</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F16" t="n">
-        <v>15.30047955202952</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G16" t="n">
-        <v>15.30047955202952</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H16" t="n">
-        <v>15.30047955202952</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I16" t="n">
-        <v>15.30047955202952</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J16" t="n">
-        <v>23.00527047835667</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>212.348704934722</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L16" t="n">
-        <v>401.6921393910873</v>
+        <v>556.3346842424263</v>
       </c>
       <c r="M16" t="n">
-        <v>441.7231787974201</v>
+        <v>654.3880318200455</v>
       </c>
       <c r="N16" t="n">
-        <v>482.0792175201594</v>
+        <v>790.075476038944</v>
       </c>
       <c r="O16" t="n">
-        <v>516.0536741456409</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P16" t="n">
-        <v>705.3971086020063</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q16" t="n">
-        <v>765.023977601476</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>736.7078121660078</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>573.6487889364852</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T16" t="n">
-        <v>380.4609158047994</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="U16" t="n">
-        <v>380.4609158047994</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="V16" t="n">
-        <v>380.4609158047994</v>
+        <v>1375.619449859803</v>
       </c>
       <c r="W16" t="n">
-        <v>187.2730426731135</v>
+        <v>1100.767046032316</v>
       </c>
       <c r="X16" t="n">
-        <v>187.2730426731135</v>
+        <v>858.2031494781207</v>
       </c>
       <c r="Y16" t="n">
-        <v>187.2730426731135</v>
+        <v>858.2031494781207</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1243.041304549133</v>
+        <v>704.4073960217404</v>
       </c>
       <c r="C17" t="n">
-        <v>816.1405745624331</v>
+        <v>277.5066660350405</v>
       </c>
       <c r="D17" t="n">
-        <v>816.1405745624331</v>
+        <v>277.5066660350405</v>
       </c>
       <c r="E17" t="n">
-        <v>390.1636347102907</v>
+        <v>277.5066660350405</v>
       </c>
       <c r="F17" t="n">
-        <v>390.1636347102907</v>
+        <v>277.5066660350405</v>
       </c>
       <c r="G17" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J17" t="n">
         <v>184.296341114908</v>
@@ -5521,10 +5521,10 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
-        <v>862.614037710348</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T17" t="n">
-        <v>1600.530719422884</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U17" t="n">
-        <v>1600.530719422884</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V17" t="n">
-        <v>1243.041304549133</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="W17" t="n">
-        <v>1243.041304549133</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="X17" t="n">
-        <v>1243.041304549133</v>
+        <v>1124.25576031327</v>
       </c>
       <c r="Y17" t="n">
-        <v>1243.041304549133</v>
+        <v>1124.25576031327</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>535.8351625219349</v>
+        <v>628.964104501411</v>
       </c>
       <c r="L18" t="n">
-        <v>712.4740133525838</v>
+        <v>805.60295533206</v>
       </c>
       <c r="M18" t="n">
-        <v>921.7487118335989</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.903693665915</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O18" t="n">
-        <v>1333.947360653402</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P18" t="n">
-        <v>1487.345475499754</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q18" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
         <v>1813.808303919614</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>785.8362142185329</v>
+        <v>606.4114643240811</v>
       </c>
       <c r="C19" t="n">
-        <v>613.8636510974488</v>
+        <v>578.8303872651909</v>
       </c>
       <c r="D19" t="n">
-        <v>450.5468782242195</v>
+        <v>415.5136143919617</v>
       </c>
       <c r="E19" t="n">
-        <v>284.3386723770731</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="F19" t="n">
-        <v>112.4768981516335</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="G19" t="n">
-        <v>112.4768981516335</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H19" t="n">
         <v>112.4768981516335</v>
@@ -5682,16 +5682,16 @@
         <v>912.7564163623084</v>
       </c>
       <c r="M19" t="n">
-        <v>1361.673971582413</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N19" t="n">
-        <v>1465.456108010032</v>
+        <v>1107.808470031875</v>
       </c>
       <c r="O19" t="n">
-        <v>1551.749235832356</v>
+        <v>1556.72602525198</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973492</v>
+        <v>1627.467133393116</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
@@ -5700,25 +5700,25 @@
         <v>1802.007452933977</v>
       </c>
       <c r="S19" t="n">
-        <v>1802.007452933977</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T19" t="n">
-        <v>1802.007452933977</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U19" t="n">
-        <v>1802.007452933977</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="V19" t="n">
-        <v>1520.295985542006</v>
+        <v>1123.827764705763</v>
       </c>
       <c r="W19" t="n">
-        <v>1245.443581714519</v>
+        <v>848.975360878276</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.344951240857</v>
+        <v>606.4114643240811</v>
       </c>
       <c r="Y19" t="n">
-        <v>976.0021829305986</v>
+        <v>606.4114643240811</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>588.4348144731205</v>
+        <v>782.0949945721197</v>
       </c>
       <c r="C20" t="n">
-        <v>588.4348144731205</v>
+        <v>782.0949945721197</v>
       </c>
       <c r="D20" t="n">
-        <v>588.4348144731205</v>
+        <v>782.0949945721197</v>
       </c>
       <c r="E20" t="n">
-        <v>588.4348144731205</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F20" t="n">
-        <v>438.8681156485927</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G20" t="n">
         <v>36.27616607839228</v>
@@ -5749,25 +5749,25 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872666</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149079</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K20" t="n">
-        <v>366.706129125031</v>
+        <v>366.7061291250304</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303112</v>
+        <v>598.9981372303107</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103488</v>
+        <v>862.6140377103485</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O20" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P20" t="n">
         <v>1591.77691709091</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1600.530719422884</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U20" t="n">
-        <v>1342.315579046524</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V20" t="n">
-        <v>984.8261641727736</v>
+        <v>1178.486344271773</v>
       </c>
       <c r="W20" t="n">
-        <v>588.4348144731205</v>
+        <v>782.0949945721197</v>
       </c>
       <c r="X20" t="n">
-        <v>588.4348144731205</v>
+        <v>782.0949945721197</v>
       </c>
       <c r="Y20" t="n">
-        <v>588.4348144731205</v>
+        <v>782.0949945721197</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.4367873432376</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C21" t="n">
-        <v>475.9308838607424</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D21" t="n">
-        <v>372.0909253760274</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489646</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318688</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004339</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H21" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>285.5020495662134</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>734.4196047863179</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>911.0584556169667</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>1120.333154097982</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.488135930298</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1532.531802917784</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P21" t="n">
-        <v>1685.929917764137</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q21" t="n">
-        <v>1780.360625738643</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R21" t="n">
         <v>1813.808303919614</v>
@@ -5861,22 +5861,22 @@
         <v>1749.847329510331</v>
       </c>
       <c r="T21" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U21" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V21" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W21" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X21" t="n">
-        <v>862.056685410008</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3637967633003</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1088.137999643809</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="C22" t="n">
-        <v>916.1654365227246</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D22" t="n">
-        <v>752.8486636494953</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E22" t="n">
-        <v>586.6404578023488</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F22" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G22" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583895</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>385.9171444939831</v>
+        <v>270.0769397276175</v>
       </c>
       <c r="L22" t="n">
-        <v>834.8346997140876</v>
+        <v>718.9944949477219</v>
       </c>
       <c r="M22" t="n">
-        <v>932.8880472917068</v>
+        <v>1167.912050167826</v>
       </c>
       <c r="N22" t="n">
-        <v>1029.886753383655</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O22" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S22" t="n">
-        <v>1813.808303919614</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T22" t="n">
-        <v>1813.808303919614</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U22" t="n">
-        <v>1533.666602402119</v>
+        <v>1125.397530580239</v>
       </c>
       <c r="V22" t="n">
-        <v>1251.955135010148</v>
+        <v>843.686063188268</v>
       </c>
       <c r="W22" t="n">
-        <v>1251.955135010148</v>
+        <v>568.833659360781</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.955135010148</v>
+        <v>326.2697628065861</v>
       </c>
       <c r="Y22" t="n">
-        <v>1251.955135010148</v>
+        <v>99.92699449632809</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>718.8438747983128</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="C23" t="n">
-        <v>718.8438747983128</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="D23" t="n">
-        <v>718.8438747983128</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="E23" t="n">
-        <v>718.8438747983128</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="F23" t="n">
-        <v>718.8438747983128</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G23" t="n">
-        <v>316.2519252281124</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H23" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I23" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J23" t="n">
-        <v>184.2963411149085</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K23" t="n">
-        <v>366.7061291250304</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L23" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M23" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N23" t="n">
         <v>1131.245262923652</v>
@@ -6007,34 +6007,34 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P23" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q23" t="n">
         <v>1740.92751718922</v>
       </c>
       <c r="R23" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S23" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T23" t="n">
-        <v>1535.975759145522</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U23" t="n">
-        <v>1277.760618769163</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V23" t="n">
-        <v>920.2712038954123</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="W23" t="n">
-        <v>718.8438747983128</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="X23" t="n">
-        <v>718.8438747983128</v>
+        <v>920.2712038954132</v>
       </c>
       <c r="Y23" t="n">
-        <v>718.8438747983128</v>
+        <v>920.2712038954132</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C24" t="n">
-        <v>475.9308838607419</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D24" t="n">
-        <v>372.0909253760269</v>
+        <v>372.0909253760275</v>
       </c>
       <c r="E24" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489647</v>
       </c>
       <c r="F24" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318688</v>
       </c>
       <c r="G24" t="n">
-        <v>80.62417733004317</v>
+        <v>80.62417733004349</v>
       </c>
       <c r="H24" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I24" t="n">
-        <v>75.26691519968657</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J24" t="n">
-        <v>433.5238427951066</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K24" t="n">
-        <v>628.9641045014114</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L24" t="n">
-        <v>805.6029553320602</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M24" t="n">
         <v>1014.877653813075</v>
       </c>
       <c r="N24" t="n">
-        <v>1232.032635645391</v>
+        <v>1232.032635645392</v>
       </c>
       <c r="O24" t="n">
         <v>1427.076302632878</v>
       </c>
       <c r="P24" t="n">
-        <v>1580.47441747923</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q24" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R24" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S24" t="n">
         <v>1749.847329510331</v>
       </c>
       <c r="T24" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U24" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V24" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W24" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X24" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y24" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.1654365227246</v>
+        <v>759.3479517384852</v>
       </c>
       <c r="C25" t="n">
-        <v>916.1654365227246</v>
+        <v>587.3753886174012</v>
       </c>
       <c r="D25" t="n">
-        <v>752.8486636494953</v>
+        <v>587.3753886174012</v>
       </c>
       <c r="E25" t="n">
-        <v>586.6404578023488</v>
+        <v>421.1671827702548</v>
       </c>
       <c r="F25" t="n">
-        <v>414.7786835769092</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="G25" t="n">
         <v>249.3054085448152</v>
@@ -6144,7 +6144,7 @@
         <v>112.4768981516335</v>
       </c>
       <c r="I25" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J25" t="n">
         <v>148.0721041840598</v>
@@ -6153,46 +6153,46 @@
         <v>463.838861142204</v>
       </c>
       <c r="L25" t="n">
-        <v>567.6209975698227</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M25" t="n">
-        <v>1016.538552789927</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N25" t="n">
-        <v>1465.456108010031</v>
+        <v>1102.250945554478</v>
       </c>
       <c r="O25" t="n">
-        <v>1551.749235832356</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.490343973491</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q25" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="R25" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S25" t="n">
-        <v>1813.808303919613</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T25" t="n">
-        <v>1813.808303919613</v>
+        <v>1418.420585315004</v>
       </c>
       <c r="U25" t="n">
-        <v>1575.238070099243</v>
+        <v>1418.420585315004</v>
       </c>
       <c r="V25" t="n">
-        <v>1575.238070099243</v>
+        <v>1418.420585315004</v>
       </c>
       <c r="W25" t="n">
-        <v>1575.238070099243</v>
+        <v>1418.420585315004</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.674173545048</v>
+        <v>1175.856688760809</v>
       </c>
       <c r="Y25" t="n">
-        <v>1106.33140523479</v>
+        <v>949.5139204505508</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="C26" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D26" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E26" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F26" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G26" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H26" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I26" t="n">
-        <v>68.0889345387268</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J26" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K26" t="n">
-        <v>366.7061291250295</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L26" t="n">
-        <v>598.9981372303098</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M26" t="n">
-        <v>862.6140377103475</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N26" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O26" t="n">
-        <v>1382.739131455146</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P26" t="n">
-        <v>1591.776917090909</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q26" t="n">
         <v>1740.92751718922</v>
@@ -6253,25 +6253,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S26" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T26" t="n">
-        <v>1607.214199529158</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U26" t="n">
-        <v>1607.214199529158</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V26" t="n">
-        <v>1249.724784655408</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="W26" t="n">
-        <v>853.3334349557547</v>
+        <v>1273.181799247285</v>
       </c>
       <c r="X26" t="n">
-        <v>441.613436123502</v>
+        <v>861.461800415032</v>
       </c>
       <c r="Y26" t="n">
-        <v>36.27616607839227</v>
+        <v>456.1245303699224</v>
       </c>
     </row>
     <row r="27">
@@ -6281,58 +6281,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>593.4367873432371</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C27" t="n">
-        <v>475.9308838607419</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D27" t="n">
-        <v>372.0909253760269</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E27" t="n">
-        <v>267.3889916489641</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F27" t="n">
-        <v>173.7431613318683</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G27" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H27" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I27" t="n">
-        <v>51.80960935527473</v>
+        <v>51.80960935527475</v>
       </c>
       <c r="J27" t="n">
-        <v>369.0081224759875</v>
+        <v>117.9640444811038</v>
       </c>
       <c r="K27" t="n">
-        <v>494.7767480472275</v>
+        <v>243.7326700523438</v>
       </c>
       <c r="L27" t="n">
-        <v>671.4155988778764</v>
+        <v>420.3715208829927</v>
       </c>
       <c r="M27" t="n">
-        <v>1120.333154097981</v>
+        <v>660.3908065674757</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.488135930297</v>
+        <v>877.5457883997919</v>
       </c>
       <c r="O27" t="n">
-        <v>1532.531802917783</v>
+        <v>1072.589455387279</v>
       </c>
       <c r="P27" t="n">
-        <v>1685.929917764136</v>
+        <v>1225.987570233631</v>
       </c>
       <c r="Q27" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R27" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S27" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T27" t="n">
         <v>1611.735244555134</v>
@@ -6347,10 +6347,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X27" t="n">
-        <v>862.0566854100075</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y27" t="n">
-        <v>722.3637967632999</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1011.937267570567</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="C28" t="n">
-        <v>839.9647044494834</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="D28" t="n">
-        <v>676.6479315762541</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="E28" t="n">
-        <v>510.4397257291076</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="F28" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G28" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H28" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I28" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J28" t="n">
-        <v>70.15038753583895</v>
+        <v>70.15038753583897</v>
       </c>
       <c r="K28" t="n">
         <v>138.6345353799611</v>
       </c>
       <c r="L28" t="n">
-        <v>356.3700675499419</v>
+        <v>587.5520906000655</v>
       </c>
       <c r="M28" t="n">
-        <v>805.2876227700463</v>
+        <v>805.2876227700464</v>
       </c>
       <c r="N28" t="n">
         <v>1254.205177990151</v>
@@ -6408,28 +6408,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R28" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S28" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T28" t="n">
-        <v>1802.007452933977</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U28" t="n">
-        <v>1802.007452933977</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V28" t="n">
-        <v>1520.295985542005</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="W28" t="n">
-        <v>1520.295985542005</v>
+        <v>737.1118970142575</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.732088987811</v>
+        <v>494.5480004600626</v>
       </c>
       <c r="Y28" t="n">
-        <v>1202.103236282633</v>
+        <v>268.2052321498046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1314.278017727834</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="C29" t="n">
-        <v>887.3772877411345</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="D29" t="n">
-        <v>887.3772877411345</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E29" t="n">
-        <v>461.4003478889921</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F29" t="n">
         <v>36.27616607839227</v>
@@ -6490,25 +6490,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S29" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T29" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U29" t="n">
-        <v>1719.615287772944</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="V29" t="n">
-        <v>1719.615287772944</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="W29" t="n">
-        <v>1719.615287772944</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="X29" t="n">
-        <v>1719.615287772944</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="Y29" t="n">
-        <v>1314.278017727834</v>
+        <v>462.2531059305347</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>475.9308838607421</v>
       </c>
       <c r="D30" t="n">
-        <v>372.0909253760272</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E30" t="n">
-        <v>267.3889916489644</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F30" t="n">
-        <v>173.7431613318686</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G30" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004337</v>
       </c>
       <c r="H30" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="I30" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J30" t="n">
-        <v>313.1315388413248</v>
+        <v>271.4329055423827</v>
       </c>
       <c r="K30" t="n">
-        <v>438.9001644125648</v>
+        <v>397.2015311136228</v>
       </c>
       <c r="L30" t="n">
-        <v>615.5390152432137</v>
+        <v>573.8403819442717</v>
       </c>
       <c r="M30" t="n">
-        <v>824.8137137242288</v>
+        <v>783.1150804252868</v>
       </c>
       <c r="N30" t="n">
-        <v>1041.968695556545</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.012362544032</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P30" t="n">
-        <v>1685.929917764136</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q30" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R30" t="n">
         <v>1813.808303919614</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>531.2567849916544</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C31" t="n">
-        <v>531.2567849916544</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D31" t="n">
-        <v>367.9400121184251</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E31" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F31" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G31" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I31" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="J31" t="n">
-        <v>148.0721041840598</v>
+        <v>70.15038753583896</v>
       </c>
       <c r="K31" t="n">
-        <v>463.838861142204</v>
+        <v>385.9171444939831</v>
       </c>
       <c r="L31" t="n">
-        <v>912.7564163623083</v>
+        <v>834.8346997140875</v>
       </c>
       <c r="M31" t="n">
-        <v>1010.809763939928</v>
+        <v>932.8880472917067</v>
       </c>
       <c r="N31" t="n">
-        <v>1107.808470031875</v>
+        <v>1029.886753383655</v>
       </c>
       <c r="O31" t="n">
         <v>1238.993031259048</v>
@@ -6645,28 +6645,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R31" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S31" t="n">
-        <v>1802.007452933977</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T31" t="n">
-        <v>1562.016618765574</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U31" t="n">
-        <v>1281.874917248078</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="V31" t="n">
-        <v>1000.163449856107</v>
+        <v>1135.6286156914</v>
       </c>
       <c r="W31" t="n">
-        <v>1000.163449856107</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X31" t="n">
-        <v>757.5995533019124</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y31" t="n">
-        <v>531.2567849916544</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>866.0406199369111</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="C32" t="n">
-        <v>439.1398899502112</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D32" t="n">
-        <v>439.1398899502112</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E32" t="n">
-        <v>439.1398899502112</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F32" t="n">
-        <v>439.1398899502112</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G32" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H32" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I32" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J32" t="n">
         <v>184.296341114908</v>
@@ -6727,25 +6727,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S32" t="n">
-        <v>1749.253343642254</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T32" t="n">
         <v>1535.975759145523</v>
       </c>
       <c r="U32" t="n">
-        <v>1277.760618769164</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="V32" t="n">
-        <v>1277.760618769164</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="W32" t="n">
-        <v>1277.760618769164</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="X32" t="n">
-        <v>866.0406199369111</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="Y32" t="n">
-        <v>866.0406199369111</v>
+        <v>1310.669908556134</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>593.4367873432377</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C33" t="n">
-        <v>475.9308838607425</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D33" t="n">
-        <v>372.0909253760275</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E33" t="n">
-        <v>267.3889916489647</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F33" t="n">
-        <v>173.7431613318689</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G33" t="n">
-        <v>80.62417733004349</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H33" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I33" t="n">
         <v>75.26691519968659</v>
       </c>
       <c r="J33" t="n">
-        <v>148.7086316845726</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K33" t="n">
-        <v>274.4772572558126</v>
+        <v>628.9641045014108</v>
       </c>
       <c r="L33" t="n">
-        <v>451.1161080864616</v>
+        <v>805.6029553320598</v>
       </c>
       <c r="M33" t="n">
-        <v>660.3908065674766</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N33" t="n">
-        <v>877.5457883997929</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O33" t="n">
-        <v>1072.589455387279</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P33" t="n">
-        <v>1225.987570233632</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q33" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R33" t="n">
         <v>1813.808303919614</v>
@@ -6812,7 +6812,7 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U33" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V33" t="n">
         <v>1222.055408810128</v>
@@ -6821,10 +6821,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X33" t="n">
-        <v>862.0566854100081</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y33" t="n">
-        <v>722.3637967633005</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>840.0754933451278</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C34" t="n">
-        <v>668.1029302240438</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D34" t="n">
-        <v>504.7861573508145</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E34" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F34" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G34" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H34" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I34" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J34" t="n">
         <v>148.0721041840598</v>
@@ -6864,16 +6864,16 @@
         <v>463.838861142204</v>
       </c>
       <c r="L34" t="n">
-        <v>556.3346842424261</v>
+        <v>606.7836421246716</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.25223946253</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N34" t="n">
-        <v>1102.250945554478</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O34" t="n">
-        <v>1238.993031259049</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P34" t="n">
         <v>1622.490343973492</v>
@@ -6885,25 +6885,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S34" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T34" t="n">
-        <v>1573.817469751211</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U34" t="n">
-        <v>1573.817469751211</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.817469751211</v>
+        <v>1142.173766603482</v>
       </c>
       <c r="W34" t="n">
-        <v>1499.148126921646</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X34" t="n">
-        <v>1256.584230367451</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y34" t="n">
-        <v>1030.241462057194</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1408.471033874504</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="C35" t="n">
-        <v>1408.471033874504</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="D35" t="n">
-        <v>1408.471033874504</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="E35" t="n">
-        <v>1143.968056608913</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="F35" t="n">
         <v>718.8438747983129</v>
@@ -6931,7 +6931,7 @@
         <v>316.2519252281125</v>
       </c>
       <c r="H35" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I35" t="n">
         <v>68.08893453872669</v>
@@ -6940,13 +6940,13 @@
         <v>184.296341114908</v>
       </c>
       <c r="K35" t="n">
-        <v>366.7061291250301</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L35" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M35" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N35" t="n">
         <v>1131.245262923652</v>
@@ -6964,25 +6964,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S35" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T35" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U35" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="V35" t="n">
-        <v>1813.808303919614</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="W35" t="n">
-        <v>1813.808303919614</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.808303919614</v>
+        <v>920.2712038954128</v>
       </c>
       <c r="Y35" t="n">
-        <v>1408.471033874504</v>
+        <v>920.2712038954128</v>
       </c>
     </row>
     <row r="36">
@@ -6998,55 +6998,55 @@
         <v>475.930883860742</v>
       </c>
       <c r="D36" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E36" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F36" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G36" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H36" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I36" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J36" t="n">
-        <v>117.9640444811038</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K36" t="n">
-        <v>243.7326700523438</v>
+        <v>267.1899758967556</v>
       </c>
       <c r="L36" t="n">
-        <v>420.3715208829927</v>
+        <v>443.8288267274046</v>
       </c>
       <c r="M36" t="n">
-        <v>629.6462193640077</v>
+        <v>653.1035252084196</v>
       </c>
       <c r="N36" t="n">
-        <v>983.0012886846985</v>
+        <v>870.2585070407358</v>
       </c>
       <c r="O36" t="n">
-        <v>1178.044955672185</v>
+        <v>1065.302174028222</v>
       </c>
       <c r="P36" t="n">
-        <v>1331.443070518538</v>
+        <v>1225.987570233631</v>
       </c>
       <c r="Q36" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R36" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S36" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T36" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U36" t="n">
         <v>1427.028547670861</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>352.891667265226</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C37" t="n">
-        <v>180.919104144142</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D37" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E37" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F37" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G37" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H37" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I37" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J37" t="n">
         <v>148.0721041840598</v>
@@ -7101,13 +7101,13 @@
         <v>463.838861142204</v>
       </c>
       <c r="L37" t="n">
-        <v>606.7836421246717</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M37" t="n">
-        <v>1055.701197344776</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N37" t="n">
-        <v>1152.699903436724</v>
+        <v>1102.250945554478</v>
       </c>
       <c r="O37" t="n">
         <v>1238.993031259048</v>
@@ -7122,25 +7122,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S37" t="n">
-        <v>1813.808303919614</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T37" t="n">
-        <v>1573.817469751211</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U37" t="n">
-        <v>1293.675768233716</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.964300841744</v>
+        <v>1142.173766603482</v>
       </c>
       <c r="W37" t="n">
-        <v>1011.964300841744</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X37" t="n">
-        <v>769.4004042875496</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y37" t="n">
-        <v>543.0576359772916</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36.27616607839227</v>
+        <v>1337.53334481</v>
       </c>
       <c r="C38" t="n">
-        <v>36.27616607839227</v>
+        <v>1337.53334481</v>
       </c>
       <c r="D38" t="n">
-        <v>36.27616607839227</v>
+        <v>914.2407239950007</v>
       </c>
       <c r="E38" t="n">
-        <v>36.27616607839227</v>
+        <v>488.2637841428583</v>
       </c>
       <c r="F38" t="n">
-        <v>36.27616607839227</v>
+        <v>63.13960233225851</v>
       </c>
       <c r="G38" t="n">
         <v>36.27616607839227</v>
@@ -7171,7 +7171,7 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I38" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J38" t="n">
         <v>184.296341114908</v>
@@ -7180,10 +7180,10 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L38" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M38" t="n">
-        <v>862.6140377103478</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N38" t="n">
         <v>1131.245262923652</v>
@@ -7204,22 +7204,22 @@
         <v>1749.253343642253</v>
       </c>
       <c r="T38" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U38" t="n">
-        <v>1277.760618769163</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V38" t="n">
-        <v>920.2712038954128</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W38" t="n">
-        <v>853.3334349557547</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="X38" t="n">
-        <v>441.613436123502</v>
+        <v>1337.53334481</v>
       </c>
       <c r="Y38" t="n">
-        <v>36.27616607839227</v>
+        <v>1337.53334481</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C39" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D39" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E39" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F39" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G39" t="n">
         <v>80.62417733004327</v>
@@ -7250,25 +7250,25 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I39" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J39" t="n">
         <v>433.5238427951067</v>
       </c>
       <c r="K39" t="n">
-        <v>559.2924683663467</v>
+        <v>628.9641045014104</v>
       </c>
       <c r="L39" t="n">
-        <v>805.60295533206</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M39" t="n">
-        <v>1014.877653813075</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N39" t="n">
         <v>1232.032635645391</v>
       </c>
       <c r="O39" t="n">
-        <v>1427.076302632878</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P39" t="n">
         <v>1580.47441747923</v>
@@ -7277,28 +7277,28 @@
         <v>1674.905125453736</v>
       </c>
       <c r="R39" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S39" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T39" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U39" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V39" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W39" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X39" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y39" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.6944124557969</v>
+        <v>827.087629819687</v>
       </c>
       <c r="C40" t="n">
-        <v>269.7218493347129</v>
+        <v>655.115066698603</v>
       </c>
       <c r="D40" t="n">
-        <v>269.7218493347129</v>
+        <v>491.7982938253737</v>
       </c>
       <c r="E40" t="n">
-        <v>269.7218493347129</v>
+        <v>325.5900879782272</v>
       </c>
       <c r="F40" t="n">
-        <v>97.86007510927337</v>
+        <v>153.7283137527876</v>
       </c>
       <c r="G40" t="n">
-        <v>36.27616607839227</v>
+        <v>153.7283137527876</v>
       </c>
       <c r="H40" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I40" t="n">
         <v>36.27616607839227</v>
@@ -7335,22 +7335,22 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K40" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L40" t="n">
-        <v>309.0520751284041</v>
+        <v>556.3346842424261</v>
       </c>
       <c r="M40" t="n">
-        <v>757.9696303485084</v>
+        <v>1005.25223946253</v>
       </c>
       <c r="N40" t="n">
-        <v>1206.887185568613</v>
+        <v>1102.250945554478</v>
       </c>
       <c r="O40" t="n">
-        <v>1655.804740788717</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P40" t="n">
-        <v>1726.545848929853</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q40" t="n">
         <v>1813.808303919614</v>
@@ -7359,25 +7359,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S40" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T40" t="n">
-        <v>1657.330917251774</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U40" t="n">
-        <v>1657.330917251774</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="V40" t="n">
-        <v>1375.619449859802</v>
+        <v>1292.10600235924</v>
       </c>
       <c r="W40" t="n">
-        <v>1100.767046032315</v>
+        <v>1017.253598531753</v>
       </c>
       <c r="X40" t="n">
-        <v>858.2031494781205</v>
+        <v>1017.253598531753</v>
       </c>
       <c r="Y40" t="n">
-        <v>631.8603811678626</v>
+        <v>1017.253598531753</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1312.446456732234</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="C41" t="n">
-        <v>885.5457267455345</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D41" t="n">
-        <v>462.2531059305347</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E41" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F41" t="n">
-        <v>36.27616607839228</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G41" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H41" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I41" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J41" t="n">
-        <v>184.2963411149075</v>
+        <v>184.2963411149078</v>
       </c>
       <c r="K41" t="n">
-        <v>366.7061291250294</v>
+        <v>366.7061291250297</v>
       </c>
       <c r="L41" t="n">
-        <v>598.9981372303097</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M41" t="n">
-        <v>862.6140377103474</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N41" t="n">
-        <v>1131.245262923651</v>
+        <v>1131.245262923652</v>
       </c>
       <c r="O41" t="n">
         <v>1382.739131455147</v>
@@ -7438,25 +7438,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S41" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T41" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U41" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="V41" t="n">
-        <v>1724.166455564487</v>
+        <v>1255.925384525955</v>
       </c>
       <c r="W41" t="n">
-        <v>1724.166455564487</v>
+        <v>1255.925384525955</v>
       </c>
       <c r="X41" t="n">
-        <v>1312.446456732234</v>
+        <v>844.2053856937023</v>
       </c>
       <c r="Y41" t="n">
-        <v>1312.446456732234</v>
+        <v>438.8681156485927</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>593.4367873432376</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C42" t="n">
-        <v>475.9308838607424</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D42" t="n">
-        <v>372.0909253760274</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E42" t="n">
-        <v>267.3889916489646</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F42" t="n">
-        <v>173.7431613318688</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G42" t="n">
-        <v>80.62417733004349</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H42" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I42" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J42" t="n">
-        <v>117.9640444811038</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K42" t="n">
-        <v>243.7326700523438</v>
+        <v>267.1899758967556</v>
       </c>
       <c r="L42" t="n">
-        <v>420.3715208829927</v>
+        <v>443.8288267274046</v>
       </c>
       <c r="M42" t="n">
-        <v>660.3908065674767</v>
+        <v>653.1035252084196</v>
       </c>
       <c r="N42" t="n">
-        <v>877.5457883997929</v>
+        <v>870.2585070407358</v>
       </c>
       <c r="O42" t="n">
-        <v>1072.589455387279</v>
+        <v>1065.302174028222</v>
       </c>
       <c r="P42" t="n">
         <v>1225.987570233632</v>
       </c>
       <c r="Q42" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R42" t="n">
         <v>1813.808303919614</v>
@@ -7520,22 +7520,22 @@
         <v>1749.847329510331</v>
       </c>
       <c r="T42" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U42" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V42" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W42" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X42" t="n">
-        <v>862.056685410008</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y42" t="n">
-        <v>722.3637967633003</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>284.4494612727175</v>
+        <v>428.0463465976522</v>
       </c>
       <c r="C43" t="n">
-        <v>112.4768981516335</v>
+        <v>256.0737834765682</v>
       </c>
       <c r="D43" t="n">
-        <v>112.4768981516335</v>
+        <v>92.75701060333893</v>
       </c>
       <c r="E43" t="n">
-        <v>112.4768981516335</v>
+        <v>92.75701060333893</v>
       </c>
       <c r="F43" t="n">
-        <v>112.4768981516335</v>
+        <v>92.75701060333893</v>
       </c>
       <c r="G43" t="n">
-        <v>112.4768981516335</v>
+        <v>92.75701060333893</v>
       </c>
       <c r="H43" t="n">
-        <v>112.4768981516335</v>
+        <v>92.75701060333893</v>
       </c>
       <c r="I43" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J43" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K43" t="n">
-        <v>263.8742444497196</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L43" t="n">
-        <v>356.3700675499418</v>
+        <v>912.7564163623083</v>
       </c>
       <c r="M43" t="n">
-        <v>805.2876227700463</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N43" t="n">
-        <v>1254.205177990151</v>
+        <v>1107.808470031875</v>
       </c>
       <c r="O43" t="n">
-        <v>1703.122733210255</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P43" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q43" t="n">
         <v>1813.808303919614</v>
@@ -7605,16 +7605,16 @@
         <v>1417.340083083371</v>
       </c>
       <c r="V43" t="n">
-        <v>1218.374498676723</v>
+        <v>1135.6286156914</v>
       </c>
       <c r="W43" t="n">
-        <v>943.5220948492361</v>
+        <v>860.7762118639127</v>
       </c>
       <c r="X43" t="n">
-        <v>700.9581982950411</v>
+        <v>618.2123153097178</v>
       </c>
       <c r="Y43" t="n">
-        <v>474.6154299847831</v>
+        <v>618.2123153097178</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>920.2712038954128</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="C44" t="n">
-        <v>493.3704739087129</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="D44" t="n">
-        <v>493.3704739087129</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="E44" t="n">
-        <v>493.3704739087129</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="F44" t="n">
-        <v>493.3704739087129</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="G44" t="n">
-        <v>90.77852433851251</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H44" t="n">
         <v>36.27616607839227</v>
@@ -7654,7 +7654,7 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L44" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M44" t="n">
         <v>862.6140377103479</v>
@@ -7687,13 +7687,13 @@
         <v>920.2712038954128</v>
       </c>
       <c r="W44" t="n">
-        <v>920.2712038954128</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="X44" t="n">
-        <v>920.2712038954128</v>
+        <v>523.8798541957597</v>
       </c>
       <c r="Y44" t="n">
-        <v>920.2712038954128</v>
+        <v>523.8798541957597</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I45" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J45" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K45" t="n">
-        <v>535.8351625219349</v>
+        <v>734.419604786316</v>
       </c>
       <c r="L45" t="n">
-        <v>712.4740133525838</v>
+        <v>911.0584556169649</v>
       </c>
       <c r="M45" t="n">
-        <v>921.7487118335988</v>
+        <v>1120.33315409798</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.903693665915</v>
+        <v>1337.488135930296</v>
       </c>
       <c r="O45" t="n">
-        <v>1333.947360653402</v>
+        <v>1532.531802917783</v>
       </c>
       <c r="P45" t="n">
-        <v>1487.345475499754</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q45" t="n">
         <v>1780.360625738641</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>634.6031346571972</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="C46" t="n">
-        <v>462.6305715361132</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D46" t="n">
-        <v>462.6305715361132</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E46" t="n">
-        <v>462.6305715361132</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F46" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G46" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H46" t="n">
         <v>36.27616607839227</v>
@@ -7815,13 +7815,13 @@
         <v>912.7564163623083</v>
       </c>
       <c r="M46" t="n">
-        <v>1361.673971582413</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N46" t="n">
-        <v>1465.456108010032</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O46" t="n">
-        <v>1551.749235832356</v>
+        <v>1238.993031259048</v>
       </c>
       <c r="P46" t="n">
         <v>1622.490343973492</v>
@@ -7833,25 +7833,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S46" t="n">
-        <v>1813.808303919614</v>
+        <v>1772.045206560267</v>
       </c>
       <c r="T46" t="n">
-        <v>1573.817469751211</v>
+        <v>1532.054372391864</v>
       </c>
       <c r="U46" t="n">
-        <v>1293.675768233716</v>
+        <v>1251.912670874369</v>
       </c>
       <c r="V46" t="n">
-        <v>1293.675768233716</v>
+        <v>970.2012034823977</v>
       </c>
       <c r="W46" t="n">
-        <v>1293.675768233716</v>
+        <v>695.3487996549107</v>
       </c>
       <c r="X46" t="n">
-        <v>1051.111871679521</v>
+        <v>452.7849031007159</v>
       </c>
       <c r="Y46" t="n">
-        <v>824.7691033692629</v>
+        <v>226.4421347904579</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>35.86282740847965</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.44701160305944</v>
+        <v>152.7991398807591</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>165.51888879422</v>
       </c>
       <c r="L13" t="n">
-        <v>153.4125802739566</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>65.71697667910871</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>150.4923189228546</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>165.0201897513847</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>125.8928814293624</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>52.43058875089788</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>136.2313785383409</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>173.4446348644538</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>298.5044852260119</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>165.51888879422</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>153.4125802739565</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>39.07953346156617</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P16" t="n">
-        <v>165.0201897513847</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.1891058505784</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>70.37539003541849</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.5903457215977</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>360.0219516362447</v>
       </c>
       <c r="M19" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>6.851949834011165</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>147.8754625841163</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>145.5360598390888</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>326.4130602513783</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>70.37539003541869</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>54.06130070650049</v>
       </c>
       <c r="L22" t="n">
         <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O22" t="n">
-        <v>124.0536869222926</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>70.37539003541903</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>70.3753900354188</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>11.40031649231987</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>354.4082905479648</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N25" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>50.95854331539985</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>253.5798767625089</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>242.0634916556459</v>
+        <v>31.05513858936155</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>358.0675224703016</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,16 +10038,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>126.5047566361199</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M28" t="n">
-        <v>354.4082905479648</v>
+        <v>120.89109554784</v>
       </c>
       <c r="N28" t="n">
         <v>355.4735849779358</v>
       </c>
       <c r="O28" t="n">
-        <v>366.287300401798</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>197.1388831921424</v>
+        <v>131.3248032493607</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>234.1036094826143</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>298.5044852260119</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>360.0219516362446</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>45.34488222711957</v>
+        <v>124.0536869222921</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
@@ -10427,10 +10427,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>7.360890261673674</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>70.37539003541826</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>358.0675224703016</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10512,16 +10512,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>50.95854331539945</v>
       </c>
       <c r="M34" t="n">
-        <v>354.4082905479649</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>50.95854331539985</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>137.5758459478531</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>7.36089026167312</v>
       </c>
       <c r="Q36" t="n">
-        <v>358.0675224703016</v>
+        <v>358.0675224703015</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>50.95854331539957</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>354.4082905479648</v>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>50.9585433153994</v>
       </c>
       <c r="P37" t="n">
         <v>315.9153581548562</v>
@@ -10904,10 +10904,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="L39" t="n">
-        <v>70.37539003541852</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10992,16 +10992,16 @@
         <v>354.4082905479648</v>
       </c>
       <c r="N40" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>366.2873004017981</v>
+        <v>50.9585433153994</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.79595194094735</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>31.0551385893626</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>7.360890261673575</v>
       </c>
       <c r="Q42" t="n">
-        <v>358.0675224703016</v>
+        <v>358.0675224703015</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>126.5047566361197</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M43" t="n">
-        <v>354.4082905479649</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>355.473584977936</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>366.2873004017982</v>
+        <v>45.34488222711957</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>176.8960973939083</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.5903457215973</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11463,16 +11463,16 @@
         <v>360.0219516362447</v>
       </c>
       <c r="M46" t="n">
-        <v>354.4082905479648</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>6.85194983401118</v>
+        <v>45.34488222711963</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.3938862482457</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23275,7 +23275,7 @@
         <v>399.3995456585952</v>
       </c>
       <c r="H11" t="n">
-        <v>285.7122430338547</v>
+        <v>94.45624863348573</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>82.90314704719353</v>
       </c>
       <c r="T11" t="n">
-        <v>214.7935231211468</v>
+        <v>23.53752872077786</v>
       </c>
       <c r="U11" t="n">
         <v>255.6996702193238</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>223.9691563348116</v>
+        <v>201.1714418022876</v>
       </c>
       <c r="X11" t="n">
-        <v>216.3468044435612</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>210.0279029442896</v>
+        <v>232.8256174768136</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>92.70937201392488</v>
@@ -23354,7 +23354,7 @@
         <v>92.63376431607153</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>48.21166394479565</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>138.5285367888426</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>182.8889700571583</v>
       </c>
       <c r="V12" t="n">
-        <v>11.66741307175741</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
-        <v>155.6844943477722</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y12" t="n">
-        <v>138.2959597602405</v>
+        <v>56.6283552230345</v>
       </c>
     </row>
     <row r="13">
@@ -23424,13 +23424,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.7844152484321</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.49413443704394</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.1884404287796</v>
@@ -23478,13 +23478,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>242.5097593473498</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>175.0595043448817</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>330.0947478279632</v>
+        <v>378.8576361065647</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23503,16 +23503,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>230.461176053252</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>399.3995456585952</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>94.45624863348571</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>162.658526324644</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>92.63376431607153</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>48.21166394479565</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>71.60506467971084</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>123.5458053487906</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>11.66741307175741</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>3.300168994745974</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>41.1823183654441</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.1924286780001</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>138.7844152484321</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>86.68250837722755</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4611306559304396</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>47.93244602841062</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3606783057509</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>80.84788538884311</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>325.3934376871419</v>
+        <v>159.7478351174166</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>142.9475712015719</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3402845023203</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>197.4706134197275</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>104.2294702373247</v>
       </c>
       <c r="F20" t="n">
-        <v>272.8019081562112</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
         <v>277.176001558223</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458685</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.08534501226939</v>
+        <v>125.2499888911885</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>221.4598841863644</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>193.014380396528</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S25" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.5909258267186</v>
+        <v>1.069697209315819</v>
       </c>
       <c r="U25" t="n">
-        <v>41.1557530201538</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.616645305212277</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U26" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>176.7495962242336</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>128.797690097432</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I28" t="n">
         <v>75.43872475250879</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S28" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T28" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.2067764490297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.5660300744983</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>162.3819029873933</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>346.5923180613575</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>47.09786625080119</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24855,10 +24855,10 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S31" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>6.47969940296116</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>276.9069449996206</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>32.58019688910125</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -24982,7 +24982,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I34" t="n">
         <v>75.43872475250879</v>
@@ -25125,7 +25125,7 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S34" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>6.479699402961046</v>
       </c>
       <c r="W34" t="n">
-        <v>198.1812303879427</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25162,10 +25162,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>159.8592229606857</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>221.4598841863648</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25222,7 +25222,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>18.4870964594048</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25362,19 +25362,19 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S37" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>6.479699402961046</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25396,16 +25396,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.5660300744983</v>
+        <v>371.9712281831708</v>
       </c>
       <c r="H38" t="n">
         <v>277.176001558223</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>326.159044952395</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>102.8504723412008</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H40" t="n">
-        <v>135.4602252892499</v>
+        <v>94.62132384410731</v>
       </c>
       <c r="I40" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T40" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3402845023203</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>277.176001558223</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>265.1690908534373</v>
+        <v>332.2976388242367</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25806,7 +25806,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>19.5226886728116</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V43" t="n">
-        <v>81.91842415546958</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25879,10 +25879,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>193.0143803965276</v>
       </c>
       <c r="H44" t="n">
-        <v>223.2186668807039</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26034,13 +26034,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>47.3310626510645</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I46" t="n">
         <v>75.43872475250879</v>
@@ -26073,7 +26073,7 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9126128011615</v>
+        <v>113.5671464154081</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>213199.9887955565</v>
+        <v>425152.9538067883</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>425152.9538067882</v>
+        <v>425152.9538067883</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>425152.9538067881</v>
+        <v>425152.9538067883</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>425152.9538067884</v>
+        <v>425152.9538067883</v>
       </c>
     </row>
     <row r="13">
@@ -26319,13 +26319,13 @@
         <v>15708.41171618051</v>
       </c>
       <c r="D2" t="n">
-        <v>15708.41171618051</v>
+        <v>15708.4117161805</v>
       </c>
       <c r="E2" t="n">
-        <v>61935.24730148951</v>
+        <v>61935.24730148949</v>
       </c>
       <c r="F2" t="n">
-        <v>61935.2473014895</v>
+        <v>123015.4261233469</v>
       </c>
       <c r="G2" t="n">
         <v>123015.426123347</v>
@@ -26334,19 +26334,19 @@
         <v>123015.426123347</v>
       </c>
       <c r="I2" t="n">
-        <v>123015.426123347</v>
+        <v>123015.4261233469</v>
       </c>
       <c r="J2" t="n">
         <v>123015.426123347</v>
       </c>
       <c r="K2" t="n">
-        <v>123015.426123347</v>
+        <v>123015.4261233469</v>
       </c>
       <c r="L2" t="n">
         <v>123015.426123347</v>
       </c>
       <c r="M2" t="n">
-        <v>123015.4261233469</v>
+        <v>123015.426123347</v>
       </c>
       <c r="N2" t="n">
         <v>123015.426123347</v>
@@ -26355,7 +26355,7 @@
         <v>123015.426123347</v>
       </c>
       <c r="P2" t="n">
-        <v>123015.4261233469</v>
+        <v>123015.426123347</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>236192.4991451121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>239014.4906561747</v>
       </c>
       <c r="G3" t="n">
-        <v>233065.8363392354</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47661.75882854954</v>
+        <v>47661.75882854955</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>64218.89967303065</v>
       </c>
       <c r="O3" t="n">
-        <v>63097.74922819658</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>7854.205858090253</v>
       </c>
       <c r="E4" t="n">
-        <v>4334.377078355506</v>
+        <v>4334.377078355505</v>
       </c>
       <c r="F4" t="n">
-        <v>4334.377078355505</v>
+        <v>10369.10229522685</v>
       </c>
       <c r="G4" t="n">
         <v>10369.10229522685</v>
       </c>
       <c r="H4" t="n">
-        <v>10369.10229522689</v>
+        <v>10369.10229522686</v>
       </c>
       <c r="I4" t="n">
         <v>10369.10229522686</v>
@@ -26447,16 +26447,16 @@
         <v>10369.10229522685</v>
       </c>
       <c r="L4" t="n">
-        <v>10369.10229522686</v>
+        <v>10369.10229522685</v>
       </c>
       <c r="M4" t="n">
         <v>10369.10229522685</v>
       </c>
       <c r="N4" t="n">
+        <v>10369.10229522684</v>
+      </c>
+      <c r="O4" t="n">
         <v>10369.10229522685</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10369.10229522686</v>
       </c>
       <c r="P4" t="n">
         <v>10369.10229522685</v>
@@ -26481,7 +26481,7 @@
         <v>16487.83241934473</v>
       </c>
       <c r="F5" t="n">
-        <v>16487.83241934473</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304155</v>
@@ -26490,7 +26490,7 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>36949.30081304154</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="J5" t="n">
         <v>36949.30081304155</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="E6" t="n">
-        <v>-195079.4613413228</v>
+        <v>-196148.4727157164</v>
       </c>
       <c r="F6" t="n">
-        <v>41113.03780378927</v>
+        <v>-164004.7278978532</v>
       </c>
       <c r="G6" t="n">
-        <v>-157368.8133241568</v>
+        <v>75009.76275832159</v>
       </c>
       <c r="H6" t="n">
-        <v>75697.02301507877</v>
+        <v>75009.76275832157</v>
       </c>
       <c r="I6" t="n">
-        <v>75697.02301507859</v>
+        <v>75009.76275832154</v>
       </c>
       <c r="J6" t="n">
-        <v>75697.02301507859</v>
+        <v>75009.76275832159</v>
       </c>
       <c r="K6" t="n">
-        <v>75697.02301507856</v>
+        <v>75009.76275832155</v>
       </c>
       <c r="L6" t="n">
-        <v>75697.02301507855</v>
+        <v>75009.76275832158</v>
       </c>
       <c r="M6" t="n">
-        <v>28035.26418652898</v>
+        <v>27348.00392977204</v>
       </c>
       <c r="N6" t="n">
-        <v>75697.02301507862</v>
+        <v>10790.86308529092</v>
       </c>
       <c r="O6" t="n">
-        <v>12599.27378688199</v>
+        <v>75009.76275832162</v>
       </c>
       <c r="P6" t="n">
-        <v>75697.02301507855</v>
+        <v>75009.76275832159</v>
       </c>
     </row>
   </sheetData>
@@ -26749,19 +26749,19 @@
         <v>222.9113743028576</v>
       </c>
       <c r="F3" t="n">
-        <v>222.9113743028576</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
         <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
-        <v>430.2483758469459</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>430.2483758469459</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="J3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="K3" t="n">
         <v>430.2483758469461</v>
@@ -26773,13 +26773,13 @@
         <v>430.2483758469461</v>
       </c>
       <c r="N3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="O3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="P3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>191.255994400369</v>
       </c>
       <c r="F4" t="n">
-        <v>191.255994400369</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="G4" t="n">
         <v>453.4520759799034</v>
@@ -26810,7 +26810,7 @@
         <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="J4" t="n">
         <v>453.4520759799034</v>
@@ -26819,7 +26819,7 @@
         <v>453.4520759799034</v>
       </c>
       <c r="L4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M4" t="n">
         <v>453.4520759799034</v>
@@ -26828,7 +26828,7 @@
         <v>453.4520759799034</v>
       </c>
       <c r="O4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P4" t="n">
         <v>453.4520759799034</v>
@@ -26971,10 +26971,10 @@
         <v>222.9113743028576</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>207.3370015440885</v>
       </c>
       <c r="G3" t="n">
-        <v>207.3370015440885</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,34 +27023,34 @@
         <v>191.255994400369</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>262.1960815795345</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>191.255994400369</v>
+      </c>
+      <c r="N4" t="n">
         <v>262.1960815795345</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>191.2559944003689</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>262.1960815795346</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>191.255994400369</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>262.1960815795345</v>
       </c>
       <c r="O4" t="n">
-        <v>262.1960815795345</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8961261278506831</v>
+        <v>0.8961261278506834</v>
       </c>
       <c r="H11" t="n">
         <v>9.177451706850812</v>
@@ -31773,7 +31773,7 @@
         <v>157.3519069469614</v>
       </c>
       <c r="N11" t="n">
-        <v>159.8980253077171</v>
+        <v>159.8980253077172</v>
       </c>
       <c r="O11" t="n">
         <v>150.9871711239019</v>
@@ -31782,19 +31782,19 @@
         <v>128.8640573425882</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.77154038893553</v>
+        <v>96.77154038893555</v>
       </c>
       <c r="R11" t="n">
         <v>56.29128287860053</v>
       </c>
       <c r="S11" t="n">
-        <v>20.42047413839746</v>
+        <v>20.42047413839747</v>
       </c>
       <c r="T11" t="n">
         <v>3.922792124666368</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07169009022805464</v>
+        <v>0.07169009022805466</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,7 +31834,7 @@
         <v>0.4794697485004862</v>
       </c>
       <c r="H12" t="n">
-        <v>4.630668360517854</v>
+        <v>4.630668360517856</v>
       </c>
       <c r="I12" t="n">
         <v>16.50805932337201</v>
@@ -31843,7 +31843,7 @@
         <v>45.29937654582884</v>
       </c>
       <c r="K12" t="n">
-        <v>77.42384969536141</v>
+        <v>77.42384969536143</v>
       </c>
       <c r="L12" t="n">
         <v>104.1059206119148</v>
@@ -31858,10 +31858,10 @@
         <v>114.0780502057275</v>
       </c>
       <c r="P12" t="n">
-        <v>91.55769258865864</v>
+        <v>91.55769258865865</v>
       </c>
       <c r="Q12" t="n">
-        <v>61.20389280858839</v>
+        <v>61.2038928085884</v>
       </c>
       <c r="R12" t="n">
         <v>29.76918315689862</v>
@@ -31870,7 +31870,7 @@
         <v>8.905940284647183</v>
       </c>
       <c r="T12" t="n">
-        <v>1.932599556455906</v>
+        <v>1.932599556455907</v>
       </c>
       <c r="U12" t="n">
         <v>0.03154406240134779</v>
@@ -31922,22 +31922,22 @@
         <v>28.41937308120202</v>
       </c>
       <c r="K13" t="n">
-        <v>46.70176005886097</v>
+        <v>46.70176005886098</v>
       </c>
       <c r="L13" t="n">
-        <v>59.76217402211366</v>
+        <v>59.76217402211368</v>
       </c>
       <c r="M13" t="n">
-        <v>63.01083323121595</v>
+        <v>63.01083323121596</v>
       </c>
       <c r="N13" t="n">
-        <v>61.51257645311482</v>
+        <v>61.51257645311484</v>
       </c>
       <c r="O13" t="n">
-        <v>56.81682045345624</v>
+        <v>56.81682045345625</v>
       </c>
       <c r="P13" t="n">
-        <v>48.61660530697075</v>
+        <v>48.61660530697077</v>
       </c>
       <c r="Q13" t="n">
         <v>33.6596175197315</v>
@@ -31946,13 +31946,13 @@
         <v>18.07409274265465</v>
       </c>
       <c r="S13" t="n">
-        <v>7.005264008829145</v>
+        <v>7.005264008829146</v>
       </c>
       <c r="T13" t="n">
         <v>1.717513867579394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02192570894782208</v>
+        <v>0.02192570894782209</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8961261278506832</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
-        <v>9.177451706850812</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J14" t="n">
-        <v>76.057584943667</v>
+        <v>146.801178249406</v>
       </c>
       <c r="K14" t="n">
-        <v>113.9906039355864</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L14" t="n">
-        <v>141.4154239207968</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M14" t="n">
-        <v>157.3519069469614</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>159.8980253077172</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O14" t="n">
-        <v>150.9871711239019</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P14" t="n">
-        <v>128.8640573425882</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.77154038893555</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R14" t="n">
-        <v>56.29128287860053</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S14" t="n">
-        <v>20.42047413839747</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T14" t="n">
-        <v>3.922792124666368</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07169009022805464</v>
+        <v>0.1383713369558016</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4794697485004862</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H15" t="n">
-        <v>4.630668360517855</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I15" t="n">
-        <v>16.50805932337201</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J15" t="n">
-        <v>45.29937654582884</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
-        <v>77.42384969536141</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L15" t="n">
-        <v>104.1059206119148</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>121.4866989950574</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
-        <v>124.7020904225015</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O15" t="n">
-        <v>114.0780502057275</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P15" t="n">
-        <v>91.55769258865865</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q15" t="n">
-        <v>61.20389280858839</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>29.76918315689862</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S15" t="n">
-        <v>8.905940284647183</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>1.932599556455907</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03154406240134779</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4019713307100711</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>3.573890558494998</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I16" t="n">
-        <v>12.08837419989923</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>28.41937308120202</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K16" t="n">
-        <v>46.70176005886098</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L16" t="n">
-        <v>59.76217402211368</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M16" t="n">
-        <v>63.01083323121595</v>
+        <v>121.6192253234244</v>
       </c>
       <c r="N16" t="n">
-        <v>61.51257645311483</v>
+        <v>118.727391977568</v>
       </c>
       <c r="O16" t="n">
-        <v>56.81682045345625</v>
+        <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>48.61660530697076</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.6596175197315</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R16" t="n">
-        <v>18.07409274265465</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S16" t="n">
-        <v>7.005264008829146</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T16" t="n">
-        <v>1.717513867579394</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02192570894782209</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,34 +32463,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H20" t="n">
-        <v>17.71369318248254</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985682</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0169119161445</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L20" t="n">
-        <v>272.9504344581584</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
-        <v>308.624294767076</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.4251699938979</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7818464210729</v>
@@ -32499,10 +32499,10 @@
         <v>108.6496061881235</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100414</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050271</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651289</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179009</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432571</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659492</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
       </c>
       <c r="L21" t="n">
-        <v>200.9381683613496</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108306</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027706</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S21" t="n">
-        <v>17.18964029916806</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.73017223965418</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928482</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371154</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677267</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I22" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445405</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.14056136596666</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L22" t="n">
         <v>115.3488842393599</v>
@@ -32642,28 +32642,28 @@
         <v>121.6192253234244</v>
       </c>
       <c r="N22" t="n">
-        <v>118.7273919775679</v>
+        <v>118.727391977568</v>
       </c>
       <c r="O22" t="n">
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701254</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288883</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391793</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S22" t="n">
         <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838816</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H23" t="n">
-        <v>17.71369318248254</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I23" t="n">
-        <v>66.68201209985682</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J23" t="n">
         <v>146.801178249406</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0169119161445</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L23" t="n">
-        <v>272.9504344581584</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M23" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N23" t="n">
-        <v>308.624294767076</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O23" t="n">
-        <v>291.4251699938979</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P23" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7818464210729</v>
@@ -32736,10 +32736,10 @@
         <v>108.6496061881235</v>
       </c>
       <c r="S23" t="n">
-        <v>39.41421051100414</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T23" t="n">
-        <v>7.571506594050271</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U23" t="n">
         <v>0.1383713369558016</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9254399027651289</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H24" t="n">
-        <v>8.937801166179009</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I24" t="n">
-        <v>31.86273349432571</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J24" t="n">
-        <v>87.43377607659492</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K24" t="n">
         <v>149.4382495618586</v>
       </c>
       <c r="L24" t="n">
-        <v>200.9381683613496</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M24" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N24" t="n">
-        <v>240.6914947108306</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O24" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P24" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q24" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R24" t="n">
-        <v>57.45845291027706</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S24" t="n">
-        <v>17.18964029916806</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T24" t="n">
-        <v>3.73017223965418</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06088420412928482</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7758577269371154</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H25" t="n">
-        <v>6.898080517677267</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I25" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J25" t="n">
-        <v>54.85314129445405</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K25" t="n">
-        <v>90.14056136596666</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L25" t="n">
         <v>115.3488842393599</v>
@@ -32879,28 +32879,28 @@
         <v>121.6192253234244</v>
       </c>
       <c r="N25" t="n">
-        <v>118.7273919775679</v>
+        <v>118.727391977568</v>
       </c>
       <c r="O25" t="n">
         <v>109.6639630765298</v>
       </c>
       <c r="P25" t="n">
-        <v>93.83646544701254</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.96750475288883</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R25" t="n">
-        <v>34.88538470391793</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S25" t="n">
         <v>13.521084204895</v>
       </c>
       <c r="T25" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04231951237838816</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H26" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I26" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J26" t="n">
         <v>146.801178249406</v>
@@ -32955,16 +32955,16 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M26" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N26" t="n">
         <v>308.6242947670762</v>
       </c>
       <c r="O26" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P26" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7818464210729</v>
@@ -32976,7 +32976,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T26" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U26" t="n">
         <v>0.1383713369558016</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H27" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I27" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J27" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K27" t="n">
         <v>149.4382495618586</v>
@@ -33034,31 +33034,31 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M27" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N27" t="n">
         <v>240.6914947108307</v>
       </c>
       <c r="O27" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P27" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q27" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R27" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S27" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T27" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H28" t="n">
-        <v>6.898080517677269</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I28" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J28" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K28" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L28" t="n">
         <v>115.3488842393599</v>
@@ -33122,10 +33122,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P28" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R28" t="n">
         <v>34.88538470391794</v>
@@ -33134,10 +33134,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T28" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H38" t="n">
         <v>17.71369318248255</v>
@@ -33909,7 +33909,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O38" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P38" t="n">
         <v>248.7246402301936</v>
@@ -33924,7 +33924,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T38" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U38" t="n">
         <v>0.1383713369558016</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H39" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I39" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J39" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K39" t="n">
         <v>149.4382495618586</v>
@@ -33982,7 +33982,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M39" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N39" t="n">
         <v>240.6914947108307</v>
@@ -33997,7 +33997,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R39" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S39" t="n">
         <v>17.18964029916807</v>
@@ -34006,7 +34006,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H40" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I40" t="n">
         <v>23.332157824618</v>
@@ -34055,7 +34055,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K40" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L40" t="n">
         <v>115.3488842393599</v>
@@ -34070,10 +34070,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P40" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R40" t="n">
         <v>34.88538470391794</v>
@@ -34082,10 +34082,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T40" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H41" t="n">
         <v>17.71369318248255</v>
@@ -34146,7 +34146,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O41" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P41" t="n">
         <v>248.7246402301936</v>
@@ -34161,7 +34161,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T41" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U41" t="n">
         <v>0.1383713369558016</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H42" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I42" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J42" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K42" t="n">
         <v>149.4382495618586</v>
@@ -34219,7 +34219,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M42" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N42" t="n">
         <v>240.6914947108307</v>
@@ -34234,7 +34234,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R42" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S42" t="n">
         <v>17.18964029916807</v>
@@ -34243,7 +34243,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H43" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I43" t="n">
         <v>23.332157824618</v>
@@ -34292,7 +34292,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K43" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L43" t="n">
         <v>115.3488842393599</v>
@@ -34307,10 +34307,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P43" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R43" t="n">
         <v>34.88538470391794</v>
@@ -34319,10 +34319,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T43" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H44" t="n">
         <v>17.71369318248255</v>
@@ -34383,7 +34383,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O44" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P44" t="n">
         <v>248.7246402301936</v>
@@ -34398,7 +34398,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T44" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U44" t="n">
         <v>0.1383713369558016</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H45" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I45" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J45" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K45" t="n">
         <v>149.4382495618586</v>
@@ -34456,7 +34456,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M45" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N45" t="n">
         <v>240.6914947108307</v>
@@ -34471,7 +34471,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R45" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S45" t="n">
         <v>17.18964029916807</v>
@@ -34480,7 +34480,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H46" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I46" t="n">
         <v>23.332157824618</v>
@@ -34529,7 +34529,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K46" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L46" t="n">
         <v>115.3488842393599</v>
@@ -34544,10 +34544,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P46" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R46" t="n">
         <v>34.88538470391794</v>
@@ -34556,10 +34556,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T46" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>46.63762545808047</v>
       </c>
       <c r="K11" t="n">
-        <v>78.2260031407771</v>
+        <v>78.22600314077711</v>
       </c>
       <c r="L11" t="n">
         <v>103.1033814881739</v>
@@ -35430,7 +35430,7 @@
         <v>91.28869553235685</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.64686578433749</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R11" t="n">
         <v>21.25863298380406</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24.02992090106073</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J12" t="n">
-        <v>24.6882622124955</v>
+        <v>60.55108962097515</v>
       </c>
       <c r="K12" t="n">
-        <v>55.02461586202807</v>
+        <v>55.02461586202809</v>
       </c>
       <c r="L12" t="n">
-        <v>81.59083389768523</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M12" t="n">
-        <v>98.3899184827294</v>
+        <v>98.38991848272943</v>
       </c>
       <c r="N12" t="n">
         <v>103.3590622089598</v>
@@ -35506,13 +35506,13 @@
         <v>90.9061604835053</v>
       </c>
       <c r="P12" t="n">
-        <v>69.78685138382997</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.90386612266933</v>
+        <v>191.255994400369</v>
       </c>
       <c r="R12" t="n">
-        <v>112.6169711212452</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.782617097300154</v>
+        <v>86.49142179247275</v>
       </c>
       <c r="K13" t="n">
         <v>191.255994400369</v>
       </c>
       <c r="L13" t="n">
-        <v>191.255994400369</v>
+        <v>37.84341412641245</v>
       </c>
       <c r="M13" t="n">
-        <v>106.1523700188388</v>
+        <v>40.43539333973014</v>
       </c>
       <c r="N13" t="n">
-        <v>191.255994400369</v>
+        <v>40.76367547751445</v>
       </c>
       <c r="O13" t="n">
         <v>34.3176329550318</v>
       </c>
       <c r="P13" t="n">
-        <v>26.23580464898427</v>
+        <v>191.255994400369</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.040054754946549</v>
+        <v>134.932936184309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J14" t="n">
-        <v>46.63762545808047</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K14" t="n">
-        <v>78.22600314077711</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>103.1033814881739</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M14" t="n">
-        <v>119.9206440475296</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
-        <v>122.6184024732711</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O14" t="n">
-        <v>113.5962117678778</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P14" t="n">
-        <v>91.28869553235688</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.64686578433751</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>21.25863298380406</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3356725733720047</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
-        <v>77.11885096339338</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K15" t="n">
-        <v>191.255994400369</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>81.59083389768524</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M15" t="n">
-        <v>98.38991848272941</v>
+        <v>384.8332191887114</v>
       </c>
       <c r="N15" t="n">
-        <v>103.3590622089598</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>90.90616048350532</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>69.78685138383</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.45685451960989</v>
+        <v>95.3845535096019</v>
       </c>
       <c r="R15" t="n">
-        <v>6.096263762754479</v>
+        <v>33.78553351613295</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7.782617097300157</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>191.255994400369</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L16" t="n">
-        <v>191.255994400369</v>
+        <v>93.43012434365875</v>
       </c>
       <c r="M16" t="n">
-        <v>40.43539333973014</v>
+        <v>99.04378543193862</v>
       </c>
       <c r="N16" t="n">
-        <v>40.76367547751444</v>
+        <v>137.0580244635338</v>
       </c>
       <c r="O16" t="n">
-        <v>34.3176329550318</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P16" t="n">
-        <v>191.255994400369</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.22916060552496</v>
+        <v>193.2504645920424</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639438</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471201</v>
@@ -35983,10 +35983,10 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>295.9748992311996</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R18" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36050,19 +36050,19 @@
         <v>453.4520759799034</v>
       </c>
       <c r="M19" t="n">
+        <v>99.0437854319386</v>
+      </c>
+      <c r="N19" t="n">
+        <v>97.9784910019676</v>
+      </c>
+      <c r="O19" t="n">
         <v>453.4520759799034</v>
-      </c>
-      <c r="N19" t="n">
-        <v>104.8304408359788</v>
-      </c>
-      <c r="O19" t="n">
-        <v>87.16477557810538</v>
       </c>
       <c r="P19" t="n">
         <v>71.4556647890261</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>188.2234045722202</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589332</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J20" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213365</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255355</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535733</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
-        <v>271.34467193263</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
-        <v>254.0342106378738</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.6571718164748</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332701</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201444</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
-        <v>212.3587215823503</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>453.4520759799035</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
-        <v>178.42308164712</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M21" t="n">
-        <v>211.3885843242575</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>219.3484664972889</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
-        <v>197.0138050378652</v>
+        <v>267.389195073284</v>
       </c>
       <c r="P21" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960182</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R21" t="n">
-        <v>33.78553351613292</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055218</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>318.9563201597416</v>
+        <v>123.2372076197552</v>
       </c>
       <c r="L22" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>99.04378543193855</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>97.97849100196754</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O22" t="n">
-        <v>211.2184625003979</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P22" t="n">
-        <v>387.3710229438822</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>32.13410955589332</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J23" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K23" t="n">
-        <v>184.2523111213351</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L23" t="n">
-        <v>234.6383920255355</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M23" t="n">
-        <v>266.2786873535733</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N23" t="n">
-        <v>271.34467193263</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O23" t="n">
-        <v>254.0342106378738</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P23" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199626</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.6571718164748</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R23" t="n">
-        <v>73.61695629332701</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>39.38459507201444</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J24" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K24" t="n">
-        <v>197.4144057639442</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L24" t="n">
-        <v>178.42308164712</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M24" t="n">
-        <v>211.3885843242575</v>
+        <v>281.7639743596764</v>
       </c>
       <c r="N24" t="n">
-        <v>219.3484664972889</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O24" t="n">
-        <v>197.0138050378652</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P24" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.38455350960182</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R24" t="n">
-        <v>140.3062408746236</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,19 +36521,19 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L25" t="n">
-        <v>104.8304408359785</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M25" t="n">
-        <v>453.4520759799033</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N25" t="n">
-        <v>453.4520759799033</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O25" t="n">
-        <v>87.16477557810532</v>
+        <v>138.1233188935052</v>
       </c>
       <c r="P25" t="n">
-        <v>71.45566478902606</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q25" t="n">
         <v>193.2504645920423</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J26" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K26" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L26" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M26" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N26" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O26" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P26" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q26" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R26" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.69034674432572</v>
+        <v>15.69034674432573</v>
       </c>
       <c r="J27" t="n">
-        <v>320.4025385057705</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K27" t="n">
-        <v>127.0390157285252</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L27" t="n">
         <v>178.4230816471201</v>
       </c>
       <c r="M27" t="n">
-        <v>453.4520759799034</v>
+        <v>242.4437229136192</v>
       </c>
       <c r="N27" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O27" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P27" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q27" t="n">
-        <v>95.38455350960184</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="R27" t="n">
-        <v>33.78553351613293</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.2163853105522</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K28" t="n">
-        <v>69.17590691325469</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L28" t="n">
+        <v>453.4520759799034</v>
+      </c>
+      <c r="M28" t="n">
         <v>219.9348809797786</v>
-      </c>
-      <c r="M28" t="n">
-        <v>453.4520759799034</v>
       </c>
       <c r="N28" t="n">
         <v>453.4520759799034</v>
@@ -36770,10 +36770,10 @@
         <v>453.4520759799034</v>
       </c>
       <c r="P28" t="n">
-        <v>71.45566478902607</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.3479419881039</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J30" t="n">
-        <v>263.961544935404</v>
+        <v>198.1474649926224</v>
       </c>
       <c r="K30" t="n">
         <v>127.0390157285253</v>
@@ -36922,19 +36922,19 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N30" t="n">
-        <v>219.3484664972891</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O30" t="n">
         <v>197.0138050378654</v>
       </c>
       <c r="P30" t="n">
-        <v>453.4520759799034</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q30" t="n">
         <v>95.38455350960189</v>
       </c>
       <c r="R30" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>112.9251900057248</v>
+        <v>34.21638531055221</v>
       </c>
       <c r="K31" t="n">
         <v>318.9563201597416</v>
@@ -37004,7 +37004,7 @@
         <v>97.9784910019676</v>
       </c>
       <c r="O31" t="n">
-        <v>132.5096578052249</v>
+        <v>211.2184625003975</v>
       </c>
       <c r="P31" t="n">
         <v>387.3710229438823</v>
@@ -37092,7 +37092,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R32" t="n">
-        <v>73.61695629332726</v>
+        <v>73.61695629332681</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J33" t="n">
-        <v>74.18355200493532</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K33" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639436</v>
       </c>
       <c r="L33" t="n">
         <v>178.4230816471201</v>
@@ -37168,7 +37168,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q33" t="n">
-        <v>453.4520759799035</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R33" t="n">
         <v>140.3062408746237</v>
@@ -37232,16 +37232,16 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L34" t="n">
-        <v>93.43012434365872</v>
+        <v>144.3886676590582</v>
       </c>
       <c r="M34" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N34" t="n">
         <v>97.9784910019676</v>
       </c>
       <c r="O34" t="n">
-        <v>138.1233188935052</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P34" t="n">
         <v>387.3710229438823</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J36" t="n">
         <v>66.82266174326165</v>
@@ -37396,19 +37396,19 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N36" t="n">
-        <v>356.9243124451422</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O36" t="n">
         <v>197.0138050378654</v>
       </c>
       <c r="P36" t="n">
-        <v>154.9475907538915</v>
+        <v>162.3084810155647</v>
       </c>
       <c r="Q36" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="R36" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L37" t="n">
-        <v>144.3886676590583</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M37" t="n">
         <v>453.4520759799034</v>
@@ -37478,7 +37478,7 @@
         <v>97.9784910019676</v>
       </c>
       <c r="O37" t="n">
-        <v>87.16477557810538</v>
+        <v>138.1233188935048</v>
       </c>
       <c r="P37" t="n">
         <v>387.3710229438823</v>
@@ -37548,16 +37548,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L38" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M38" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N38" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O38" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P38" t="n">
         <v>211.1492784199623</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J39" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K39" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639431</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7984716825387</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M39" t="n">
         <v>211.3885843242576</v>
@@ -37636,13 +37636,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O39" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P39" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q39" t="n">
-        <v>95.38455350960186</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R39" t="n">
         <v>140.3062408746237</v>
@@ -37703,7 +37703,7 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K40" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L40" t="n">
         <v>93.43012434365872</v>
@@ -37712,16 +37712,16 @@
         <v>453.4520759799034</v>
       </c>
       <c r="N40" t="n">
-        <v>453.4520759799034</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O40" t="n">
-        <v>453.4520759799034</v>
+        <v>138.1233188935048</v>
       </c>
       <c r="P40" t="n">
-        <v>71.45566478902609</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.14389392905125</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>32.13410955589335</v>
       </c>
       <c r="J41" t="n">
-        <v>117.3812187638195</v>
+        <v>117.3812187638193</v>
       </c>
       <c r="K41" t="n">
         <v>184.2523111213353</v>
       </c>
       <c r="L41" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M41" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N41" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O41" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P41" t="n">
         <v>211.1492784199623</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J42" t="n">
-        <v>66.82266174326163</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K42" t="n">
         <v>127.0390157285253</v>
@@ -37867,19 +37867,19 @@
         <v>178.4230816471201</v>
       </c>
       <c r="M42" t="n">
-        <v>242.4437229136202</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N42" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O42" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P42" t="n">
-        <v>154.9475907538915</v>
+        <v>162.3084810155651</v>
       </c>
       <c r="Q42" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="R42" t="n">
         <v>140.3062408746237</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K43" t="n">
-        <v>195.6806635493744</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L43" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M43" t="n">
-        <v>453.4520759799035</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N43" t="n">
-        <v>453.4520759799035</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O43" t="n">
-        <v>453.4520759799035</v>
+        <v>132.5096578052249</v>
       </c>
       <c r="P43" t="n">
-        <v>71.45566478902609</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.3479419881039</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L44" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M44" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N44" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O44" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P44" t="n">
         <v>211.1492784199623</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J45" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K45" t="n">
-        <v>127.0390157285253</v>
+        <v>303.9351131224336</v>
       </c>
       <c r="L45" t="n">
         <v>178.4230816471201</v>
@@ -38110,13 +38110,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O45" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P45" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q45" t="n">
-        <v>295.9748992311991</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R45" t="n">
         <v>33.78553351613294</v>
@@ -38183,16 +38183,16 @@
         <v>453.4520759799034</v>
       </c>
       <c r="M46" t="n">
-        <v>453.4520759799034</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N46" t="n">
-        <v>104.8304408359788</v>
+        <v>143.3233732290872</v>
       </c>
       <c r="O46" t="n">
-        <v>87.16477557810536</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P46" t="n">
-        <v>71.45566478902609</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q46" t="n">
         <v>193.2504645920423</v>
